--- a/ListOfQuestions&Challenges.xlsx
+++ b/ListOfQuestions&Challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\ken_teaches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken Wagner\Documents\GitHub\ken_teaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEB917E-11A6-4725-9C42-57852314C4EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864CDFD0-730E-466D-9C96-D7F0E2EA7A5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Language</t>
   </si>
@@ -79,6 +79,30 @@
         strings.Distinct().Count() &lt; 2,
         Enumerable.Range(1, strings.Count - 1).All(i =&gt; string.Compare(strings[i-1], strings[i]) &lt; 0)
     );</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Create an ES6 class</t>
+  </si>
+  <si>
+    <t>How do you pass data?</t>
+  </si>
+  <si>
+    <t>When you call setState in a Component, you will need to update the child components, too.</t>
+  </si>
+  <si>
+    <t>When you call setState in a component, React automatically updates the child components inside of it too.</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>reactjs.org</t>
   </si>
 </sst>
 </file>
@@ -436,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD95F88-FD71-4F2B-8F77-8712B02D6E41}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +493,11 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -478,14 +505,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -495,18 +550,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62136AED-5C70-48DC-B5CB-1CB17936BE62}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -528,14 +583,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ListOfQuestions&Challenges.xlsx
+++ b/ListOfQuestions&Challenges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\ken_teaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEB917E-11A6-4725-9C42-57852314C4EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC138F4A-B2F7-45ED-A7F5-EE3E39BAE760}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
+    <workbookView xWindow="4035" yWindow="1320" windowWidth="14400" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Language</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62136AED-5C70-48DC-B5CB-1CB17936BE62}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +538,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ListOfQuestions&Challenges.xlsx
+++ b/ListOfQuestions&Challenges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\ken_teaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC138F4A-B2F7-45ED-A7F5-EE3E39BAE760}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CFD44-58E7-4ABC-BA82-E752694F7A4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1320" windowWidth="14400" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
+    <workbookView xWindow="20760" yWindow="1560" windowWidth="14400" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Language</t>
   </si>
@@ -79,6 +79,9 @@
         strings.Distinct().Count() &lt; 2,
         Enumerable.Range(1, strings.Count - 1).All(i =&gt; string.Compare(strings[i-1], strings[i]) &lt; 0)
     );</t>
+  </si>
+  <si>
+    <t>Find</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +545,9 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ListOfQuestions&Challenges.xlsx
+++ b/ListOfQuestions&Challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\ken_teaches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken Wagner\Documents\GitHub\ken_teaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CFD44-58E7-4ABC-BA82-E752694F7A4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7E9FA-A171-4C36-887E-BD6182BCDCDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20760" yWindow="1560" windowWidth="14400" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{ECCD784A-AE08-49E2-A5CB-51F40110BD82}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     );</t>
   </si>
   <si>
-    <t>Find</t>
+    <t>Palindrome</t>
   </si>
 </sst>
 </file>
@@ -445,9 +445,9 @@
       <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -481,12 +481,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -504,12 +504,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,17 +531,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
